--- a/020_アプリケーション開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/020_アプリケーション開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="16560" windowHeight="14760" tabRatio="641"/>
+    <workbookView xWindow="4605" yWindow="1845" windowWidth="21600" windowHeight="11505" tabRatio="641"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -101,6 +101,14 @@
     <definedName name="文字列長精査">'4（クラス単体）'!$G$27</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -11040,46 +11048,6 @@
       <t>タイショウガイ</t>
     </rPh>
     <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>※ Fromクラスに実装した精査定義・精査処理のみテストすればよい。自動生成されたクラスに実装されている精査定義についてはテストを行う必要はない。</t>
-    <rPh sb="10" eb="12">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>リクエスト単体テストでは、正しい処理が呼び出されていることを、出力されたHTMLで確認する。</t>
@@ -14717,6 +14685,46 @@
     </rPh>
     <rPh sb="62" eb="64">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>※ Formクラスに実装した精査定義・精査処理のみテストすればよい。自動生成されたクラスに実装されている精査定義についてはテストを行う必要はない。</t>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -17766,6 +17774,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -17787,7 +17798,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18845" name="Group 7"/>
+        <xdr:cNvPr id="18845" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009D490000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -17802,7 +17819,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33796" name="Text Box 4"/>
+          <xdr:cNvPr id="33796" name="Text Box 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004840000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -17892,7 +17915,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18848" name="Line 5"/>
+          <xdr:cNvPr id="18848" name="Line 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A0490000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -17934,7 +17963,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33800" name="Text Box 8"/>
+        <xdr:cNvPr id="33800" name="Text Box 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008840000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -18062,7 +18097,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20946" name="Rectangle 2"/>
+        <xdr:cNvPr id="20946" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-0000D2510000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -18114,7 +18155,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20947" name="Rectangle 3"/>
+        <xdr:cNvPr id="20947" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-0000D3510000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -18166,7 +18213,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20948" name="Rectangle 4"/>
+        <xdr:cNvPr id="20948" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-0000D4510000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -18218,7 +18271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20949" name="Line 5"/>
+        <xdr:cNvPr id="20949" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-0000D5510000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -18270,7 +18329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20950" name="Line 6"/>
+        <xdr:cNvPr id="20950" name="Line 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-0000D6510000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -18322,7 +18387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20951" name="Line 7"/>
+        <xdr:cNvPr id="20951" name="Line 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-0000D7510000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -18374,7 +18445,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20952" name="AutoShape 15"/>
+        <xdr:cNvPr id="20952" name="AutoShape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-0000D8510000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -18434,7 +18511,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6504" name="AutoShape 1"/>
+        <xdr:cNvPr id="6504" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000068190000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -18495,7 +18578,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20043" name="Rectangle 2"/>
+        <xdr:cNvPr id="20043" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00004B4E0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -18547,7 +18636,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20044" name="Rectangle 3"/>
+        <xdr:cNvPr id="20044" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00004C4E0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -18599,7 +18694,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20045" name="Rectangle 4"/>
+        <xdr:cNvPr id="20045" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00004D4E0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -18651,7 +18752,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20046" name="Line 5"/>
+        <xdr:cNvPr id="20046" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00004E4E0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -18703,7 +18810,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20047" name="Line 6"/>
+        <xdr:cNvPr id="20047" name="Line 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00004F4E0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -18755,7 +18868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20048" name="Line 7"/>
+        <xdr:cNvPr id="20048" name="Line 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-0000504E0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -18807,7 +18926,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20049" name="AutoShape 15"/>
+        <xdr:cNvPr id="20049" name="AutoShape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-0000514E0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -19374,7 +19499,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="83"/>
       <c r="J34" s="84" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K34" s="83"/>
       <c r="L34" s="85"/>
@@ -19925,7 +20050,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -19944,7 +20069,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -19961,7 +20086,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -19980,7 +20105,7 @@
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="626" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -20011,7 +20136,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -20030,7 +20155,7 @@
     </row>
     <row r="3" spans="1:36" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -20117,7 +20242,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="38" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -20157,7 +20282,7 @@
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
       <c r="D6" s="40" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="100"/>
@@ -20306,7 +20431,7 @@
     <row r="10" spans="1:36" s="62" customFormat="1" ht="12" customHeight="1">
       <c r="C10" s="67"/>
       <c r="D10" s="63" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E10" s="623" t="s">
         <v>215</v>
@@ -20376,13 +20501,13 @@
       <c r="N11" s="616"/>
       <c r="O11" s="616"/>
       <c r="P11" s="601" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q11" s="602"/>
       <c r="R11" s="602"/>
       <c r="S11" s="603"/>
       <c r="T11" s="616" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="U11" s="616"/>
       <c r="V11" s="616"/>
@@ -20427,7 +20552,7 @@
       <c r="R12" s="605"/>
       <c r="S12" s="606"/>
       <c r="T12" s="616" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="U12" s="616"/>
       <c r="V12" s="616"/>
@@ -20470,7 +20595,7 @@
       <c r="R13" s="605"/>
       <c r="S13" s="606"/>
       <c r="T13" s="601" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="U13" s="602"/>
       <c r="V13" s="603"/>
@@ -20660,7 +20785,7 @@
     </row>
     <row r="19" spans="4:34" ht="12" customHeight="1">
       <c r="D19" s="40" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="20" spans="4:34" ht="12" customHeight="1">
@@ -20671,7 +20796,7 @@
     </row>
     <row r="21" spans="4:34" ht="12" customHeight="1">
       <c r="D21" s="81" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E21" s="613" t="s">
         <v>215</v>
@@ -20779,7 +20904,7 @@
       <c r="J23" s="611"/>
       <c r="K23" s="612"/>
       <c r="L23" s="589" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="M23" s="590"/>
       <c r="N23" s="590"/>
@@ -20796,7 +20921,7 @@
       <c r="U23" s="590"/>
       <c r="V23" s="591"/>
       <c r="W23" s="589" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="X23" s="587"/>
       <c r="Y23" s="587"/>
@@ -20918,7 +21043,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -20937,7 +21062,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -20954,7 +21079,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -20973,7 +21098,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -21004,7 +21129,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -21023,7 +21148,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -21073,7 +21198,7 @@
     <row r="5" spans="1:35" ht="11.25">
       <c r="A5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25">
@@ -21177,7 +21302,7 @@
     <row r="10" spans="1:35" ht="11.25">
       <c r="C10" s="100"/>
       <c r="D10" s="100" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
@@ -21354,7 +21479,7 @@
       </c>
       <c r="L15" s="273"/>
       <c r="M15" s="633" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="N15" s="634"/>
       <c r="O15" s="634"/>
@@ -21508,7 +21633,7 @@
       </c>
       <c r="L19" s="273"/>
       <c r="M19" s="381" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="N19" s="382"/>
       <c r="O19" s="382"/>
@@ -21599,7 +21724,7 @@
     <row r="22" spans="3:34" ht="11.25">
       <c r="C22" s="100"/>
       <c r="D22" s="100" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -21666,7 +21791,7 @@
     <row r="25" spans="3:34" ht="11.25"/>
     <row r="26" spans="3:34" ht="11.25">
       <c r="E26" s="98" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="27" spans="3:34" ht="11.25">
@@ -21721,7 +21846,7 @@
       </c>
       <c r="L28" s="273"/>
       <c r="M28" s="633" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="N28" s="634"/>
       <c r="O28" s="634"/>
@@ -21867,7 +21992,7 @@
       </c>
       <c r="L32" s="273"/>
       <c r="M32" s="381" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="N32" s="382"/>
       <c r="O32" s="382"/>
@@ -21925,7 +22050,7 @@
     </row>
     <row r="35" spans="5:34" ht="15" customHeight="1">
       <c r="E35" s="98" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="36" spans="5:34" ht="15" customHeight="1">
@@ -21998,7 +22123,7 @@
       </c>
       <c r="L42" s="649"/>
       <c r="M42" s="381" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N42" s="382"/>
       <c r="O42" s="382"/>
@@ -22064,11 +22189,11 @@
       <c r="I44" s="643"/>
       <c r="J44" s="640"/>
       <c r="K44" s="662" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="L44" s="640"/>
       <c r="M44" s="381" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="N44" s="382"/>
       <c r="O44" s="382"/>
@@ -22225,7 +22350,7 @@
     </row>
     <row r="50" spans="4:34" ht="15" customHeight="1">
       <c r="D50" s="100" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="51" spans="4:34" ht="15" customHeight="1">
@@ -22258,7 +22383,7 @@
     </row>
     <row r="59" spans="4:34" ht="15" customHeight="1">
       <c r="E59" s="98" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="60" spans="4:34" ht="15" customHeight="1">
@@ -22316,7 +22441,7 @@
       </c>
       <c r="L62" s="273"/>
       <c r="M62" s="633" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="N62" s="634"/>
       <c r="O62" s="634"/>
@@ -22382,11 +22507,11 @@
       <c r="I64" s="643"/>
       <c r="J64" s="640"/>
       <c r="K64" s="639" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L64" s="640"/>
       <c r="M64" s="381" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="N64" s="382"/>
       <c r="O64" s="382"/>
@@ -22476,7 +22601,7 @@
     </row>
     <row r="68" spans="5:34" ht="15" customHeight="1">
       <c r="E68" s="98" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="69" spans="5:34" ht="15" customHeight="1">
@@ -22534,7 +22659,7 @@
       </c>
       <c r="L71" s="273"/>
       <c r="M71" s="633" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="N71" s="634"/>
       <c r="O71" s="634"/>
@@ -22604,7 +22729,7 @@
       </c>
       <c r="L73" s="649"/>
       <c r="M73" s="381" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="N73" s="382"/>
       <c r="O73" s="382"/>
@@ -22738,7 +22863,7 @@
       </c>
       <c r="L77" s="649"/>
       <c r="M77" s="381" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="N77" s="382"/>
       <c r="O77" s="382"/>
@@ -23291,11 +23416,11 @@
       <c r="I94" s="655"/>
       <c r="J94" s="656"/>
       <c r="K94" s="654" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L94" s="656"/>
       <c r="M94" s="633" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="N94" s="634"/>
       <c r="O94" s="634"/>
@@ -23353,7 +23478,7 @@
     </row>
     <row r="96" spans="5:34" ht="15" customHeight="1">
       <c r="E96" s="381" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F96" s="382"/>
       <c r="G96" s="382"/>
@@ -23361,7 +23486,7 @@
       <c r="I96" s="382"/>
       <c r="J96" s="383"/>
       <c r="K96" s="639" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L96" s="640"/>
       <c r="M96" s="639" t="s">
@@ -23423,7 +23548,7 @@
     </row>
     <row r="99" spans="4:34" ht="15" customHeight="1">
       <c r="D99" s="15" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="101" spans="4:34" ht="15" customHeight="1">
@@ -24077,7 +24202,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -24096,7 +24221,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -24113,7 +24238,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -24132,7 +24257,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -24163,7 +24288,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -24182,7 +24307,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -24231,7 +24356,7 @@
     <row r="4" spans="1:35" ht="11.25"/>
     <row r="5" spans="1:35" ht="11.25">
       <c r="B5" s="19" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25">
@@ -24244,7 +24369,7 @@
     </row>
     <row r="7" spans="1:35" ht="11.25">
       <c r="D7" s="15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25">
@@ -24260,7 +24385,7 @@
     </row>
     <row r="10" spans="1:35" ht="11.25">
       <c r="F10" s="31" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25">
@@ -24279,12 +24404,12 @@
     </row>
     <row r="14" spans="1:35" ht="11.25">
       <c r="F14" s="15" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25">
       <c r="G15" s="15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25"/>
@@ -24416,7 +24541,7 @@
     <row r="26" spans="7:23" ht="11.25"/>
     <row r="27" spans="7:23" ht="11.25">
       <c r="G27" s="15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="28" spans="7:23" ht="11.25">
@@ -24696,7 +24821,7 @@
     <row r="43" spans="7:32" ht="11.25"/>
     <row r="44" spans="7:32" ht="11.25">
       <c r="G44" s="15" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="45" spans="7:32" ht="11.25">
@@ -25386,7 +25511,7 @@
     <row r="63" spans="7:32" ht="11.25"/>
     <row r="64" spans="7:32" ht="11.25">
       <c r="G64" s="15" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H64" s="20"/>
     </row>
@@ -25516,7 +25641,7 @@
     <row r="73" spans="7:31" ht="11.25"/>
     <row r="74" spans="7:31" ht="11.25">
       <c r="G74" s="15" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H74" s="20"/>
     </row>
@@ -25637,7 +25762,7 @@
     </row>
     <row r="84" spans="7:29" ht="11.25">
       <c r="G84" s="15" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="85" spans="7:29" ht="11.25"/>
@@ -25787,7 +25912,7 @@
     <row r="94" spans="7:29" ht="11.25"/>
     <row r="95" spans="7:29" ht="11.25">
       <c r="G95" s="15" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="96" spans="7:29" ht="11.25"/>
@@ -25807,13 +25932,13 @@
     <row r="100" spans="6:14" ht="11.25"/>
     <row r="101" spans="6:14" ht="11.25">
       <c r="F101" s="15" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="N101" s="20"/>
     </row>
     <row r="102" spans="6:14" ht="11.25">
       <c r="G102" s="15" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="103" spans="6:14" ht="11.25"/>
@@ -25836,7 +25961,7 @@
     <row r="108" spans="6:14" ht="11.25"/>
     <row r="109" spans="6:14" ht="11.25">
       <c r="F109" s="15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="110" spans="6:14" ht="11.25"/>
@@ -25848,7 +25973,7 @@
     <row r="112" spans="6:14" ht="11.25"/>
     <row r="113" spans="7:19" ht="11.25">
       <c r="G113" s="15" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="114" spans="7:19" ht="11.25"/>
@@ -25942,7 +26067,7 @@
     <row r="122" spans="7:19" ht="11.25"/>
     <row r="123" spans="7:19" ht="11.25">
       <c r="G123" s="15" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="124" spans="7:19" ht="11.25"/>
@@ -26021,7 +26146,7 @@
     <row r="133" spans="4:15" ht="11.25"/>
     <row r="134" spans="4:15" ht="11.25">
       <c r="G134" s="15" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="135" spans="4:15" ht="11.25"/>
@@ -26052,7 +26177,7 @@
     <row r="141" spans="4:15" ht="11.25"/>
     <row r="142" spans="4:15" ht="11.25">
       <c r="D142" s="39" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="143" spans="4:15" ht="11.25">
@@ -26079,7 +26204,7 @@
     </row>
     <row r="147" spans="5:24" ht="11.25">
       <c r="F147" s="15" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="148" spans="5:24" ht="11.25">
@@ -26100,7 +26225,7 @@
     </row>
     <row r="152" spans="5:24" ht="11.25">
       <c r="G152" s="15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="153" spans="5:24" ht="11.25">
@@ -26124,7 +26249,7 @@
     </row>
     <row r="156" spans="5:24" ht="11.25">
       <c r="H156" s="151" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I156" s="151" t="s">
         <v>269</v>
@@ -26448,7 +26573,7 @@
     </row>
     <row r="169" spans="7:33" ht="11.25">
       <c r="H169" s="151" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I169" s="151" t="s">
         <v>269</v>
@@ -26462,7 +26587,7 @@
       </c>
       <c r="O169" s="153"/>
       <c r="Q169" s="151" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="R169" s="151" t="s">
         <v>269</v>
@@ -26476,7 +26601,7 @@
       </c>
       <c r="X169" s="153"/>
       <c r="Z169" s="151" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AA169" s="151" t="s">
         <v>269</v>
@@ -26631,7 +26756,7 @@
     <row r="174" spans="7:33" ht="11.25"/>
     <row r="175" spans="7:33" ht="11.25">
       <c r="G175" s="15" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="176" spans="7:33" ht="11.25">
@@ -26709,7 +26834,7 @@
     <row r="184" spans="7:17" ht="11.25"/>
     <row r="185" spans="7:17" ht="11.25">
       <c r="G185" s="15" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="186" spans="7:17" ht="11.25"/>
@@ -26721,7 +26846,7 @@
     <row r="188" spans="7:17" ht="11.25"/>
     <row r="189" spans="7:17" ht="11.25">
       <c r="G189" s="15" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="190" spans="7:17" ht="11.25"/>
@@ -26872,7 +26997,7 @@
     <row r="211" spans="6:25" ht="11.25"/>
     <row r="212" spans="6:25" ht="11.25">
       <c r="G212" s="15" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="213" spans="6:25" ht="11.25"/>
@@ -26884,13 +27009,13 @@
     <row r="215" spans="6:25" ht="11.25"/>
     <row r="216" spans="6:25" ht="11.25">
       <c r="F216" s="39" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G216" s="39"/>
     </row>
     <row r="217" spans="6:25" ht="11.25">
       <c r="G217" s="15" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="218" spans="6:25" ht="11.25">
@@ -26934,7 +27059,7 @@
     </row>
     <row r="222" spans="6:25" ht="11.25">
       <c r="I222" s="151" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J222" s="151" t="s">
         <v>269</v>
@@ -27261,7 +27386,7 @@
     </row>
     <row r="235" spans="9:34" ht="11.25">
       <c r="I235" s="151" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J235" s="151" t="s">
         <v>269</v>
@@ -27275,7 +27400,7 @@
       </c>
       <c r="P235" s="153"/>
       <c r="R235" s="151" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="S235" s="151" t="s">
         <v>269</v>
@@ -27289,7 +27414,7 @@
       </c>
       <c r="Y235" s="153"/>
       <c r="AA235" s="151" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AB235" s="151" t="s">
         <v>269</v>
@@ -27736,7 +27861,7 @@
     <row r="260" spans="7:29" ht="11.25"/>
     <row r="261" spans="7:29" ht="11.25">
       <c r="G261" s="15" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="262" spans="7:29" ht="11.25">
@@ -27805,7 +27930,7 @@
     <row r="267" spans="7:29" ht="11.25"/>
     <row r="268" spans="7:29" ht="11.25">
       <c r="G268" s="15" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="269" spans="7:29" ht="11.25">
@@ -27884,7 +28009,7 @@
     <row r="276" spans="7:29" ht="11.25"/>
     <row r="277" spans="7:29" ht="11.25">
       <c r="G277" s="15" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="278" spans="7:29" ht="11.25">
@@ -27910,7 +28035,7 @@
     <row r="282" spans="7:29" ht="11.25"/>
     <row r="283" spans="7:29" ht="11.25">
       <c r="G283" s="15" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="284" spans="7:29" ht="11.25">
@@ -27969,7 +28094,7 @@
     <row r="288" spans="7:29" ht="11.25"/>
     <row r="289" spans="6:33" ht="11.25">
       <c r="F289" s="39" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G289" s="39"/>
       <c r="H289" s="39"/>
@@ -28002,7 +28127,7 @@
     <row r="290" spans="6:33" ht="11.25">
       <c r="F290" s="39"/>
       <c r="G290" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H290" s="39"/>
       <c r="I290" s="39"/>
@@ -28035,7 +28160,7 @@
       <c r="F291" s="39"/>
       <c r="G291" s="39"/>
       <c r="H291" s="39" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I291" s="39"/>
       <c r="J291" s="39"/>
@@ -28128,7 +28253,7 @@
     <row r="294" spans="6:33" ht="11.25">
       <c r="F294" s="39"/>
       <c r="G294" s="39" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H294" s="39"/>
       <c r="I294" s="39"/>
@@ -28161,7 +28286,7 @@
       <c r="F295" s="39"/>
       <c r="G295" s="39"/>
       <c r="H295" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I295" s="39"/>
       <c r="J295" s="39"/>
@@ -28254,7 +28379,7 @@
     <row r="298" spans="6:33" ht="11.25">
       <c r="F298" s="39"/>
       <c r="G298" s="39" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H298" s="39"/>
       <c r="I298" s="39"/>
@@ -28348,7 +28473,7 @@
     <row r="301" spans="6:33" ht="11.25">
       <c r="F301" s="39"/>
       <c r="G301" s="39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H301" s="39"/>
       <c r="I301" s="39"/>
@@ -28381,7 +28506,7 @@
       <c r="F302" s="39"/>
       <c r="G302" s="39"/>
       <c r="H302" s="39" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I302" s="39"/>
       <c r="J302" s="39"/>
@@ -28442,7 +28567,7 @@
     <row r="304" spans="6:33" ht="11.25">
       <c r="F304" s="39"/>
       <c r="G304" s="39" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H304" s="39"/>
       <c r="I304" s="39"/>
@@ -28507,7 +28632,7 @@
       <c r="F306" s="39"/>
       <c r="G306" s="39"/>
       <c r="H306" s="39" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I306" s="39"/>
       <c r="J306" s="39"/>
@@ -28600,7 +28725,7 @@
     <row r="309" spans="6:33" ht="11.25">
       <c r="F309" s="39"/>
       <c r="G309" s="39" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H309" s="39"/>
       <c r="I309" s="39"/>
@@ -28633,7 +28758,7 @@
       <c r="F310" s="39"/>
       <c r="G310" s="39"/>
       <c r="H310" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I310" s="39"/>
       <c r="J310" s="39"/>
@@ -28979,7 +29104,7 @@
     </row>
     <row r="321" spans="6:33" ht="11.25">
       <c r="F321" s="39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G321" s="39"/>
       <c r="H321" s="39"/>
@@ -29012,7 +29137,7 @@
     <row r="322" spans="6:33" ht="11.25">
       <c r="F322" s="39"/>
       <c r="G322" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H322" s="39"/>
       <c r="I322" s="39"/>
@@ -29138,7 +29263,7 @@
     <row r="326" spans="6:33" ht="11.25">
       <c r="F326" s="39"/>
       <c r="G326" s="39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H326" s="39"/>
       <c r="I326" s="39"/>
@@ -29264,7 +29389,7 @@
     <row r="330" spans="6:33" ht="11.25">
       <c r="F330" s="39"/>
       <c r="G330" s="39" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H330" s="39"/>
       <c r="I330" s="39"/>
@@ -29422,7 +29547,7 @@
     <row r="335" spans="6:33" ht="11.25">
       <c r="F335" s="39"/>
       <c r="G335" s="39" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H335" s="39"/>
       <c r="I335" s="39"/>
@@ -29612,7 +29737,7 @@
     <row r="341" spans="6:33" ht="11.25">
       <c r="F341" s="39"/>
       <c r="G341" s="39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H341" s="39"/>
       <c r="I341" s="39"/>
@@ -30083,7 +30208,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -30102,7 +30227,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -30119,7 +30244,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -30138,7 +30263,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -30169,7 +30294,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -30188,7 +30313,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -30237,7 +30362,7 @@
     <row r="4" spans="1:35" ht="11.25"/>
     <row r="5" spans="1:35" ht="11.25">
       <c r="C5" s="15" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25">
@@ -30270,12 +30395,12 @@
     </row>
     <row r="11" spans="1:35" ht="11.25">
       <c r="E11" s="15" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25">
       <c r="F12" s="15" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25"/>
@@ -30287,7 +30412,7 @@
     <row r="15" spans="1:35" ht="11.25"/>
     <row r="16" spans="1:35" ht="11.25">
       <c r="F16" s="15" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="5:18" ht="11.25"/>
@@ -30299,7 +30424,7 @@
     <row r="19" spans="5:18" ht="11.25"/>
     <row r="20" spans="5:18" ht="11.25">
       <c r="F20" s="15" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="21" spans="5:18" ht="11.25"/>
@@ -30359,7 +30484,7 @@
     <row r="26" spans="5:18" ht="11.25"/>
     <row r="27" spans="5:18" s="41" customFormat="1" ht="11.25">
       <c r="E27" s="39" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -30377,7 +30502,7 @@
     <row r="28" spans="5:18" s="41" customFormat="1" ht="11.25">
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
@@ -30410,7 +30535,7 @@
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="39"/>
@@ -30458,7 +30583,7 @@
     <row r="33" spans="5:17" s="41" customFormat="1" ht="11.25">
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -30491,7 +30616,7 @@
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
@@ -30539,7 +30664,7 @@
     <row r="38" spans="5:17" s="41" customFormat="1" ht="11.25">
       <c r="E38" s="39"/>
       <c r="F38" s="39" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
@@ -30603,7 +30728,7 @@
     <row r="42" spans="5:17" s="41" customFormat="1" ht="11.25">
       <c r="E42" s="39"/>
       <c r="F42" s="39" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
@@ -30636,7 +30761,7 @@
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
       <c r="G44" s="39" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="39"/>
@@ -30667,7 +30792,7 @@
     <row r="46" spans="5:17" s="41" customFormat="1" ht="11.25">
       <c r="E46" s="39"/>
       <c r="F46" s="39" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
@@ -30717,7 +30842,7 @@
       <c r="E49" s="39"/>
       <c r="F49" s="39"/>
       <c r="G49" s="39" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="39"/>
@@ -30765,7 +30890,7 @@
     <row r="52" spans="5:25" s="41" customFormat="1" ht="11.25">
       <c r="E52" s="39"/>
       <c r="F52" s="78" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
@@ -30798,7 +30923,7 @@
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
       <c r="G54" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
@@ -31033,7 +31158,7 @@
     </row>
     <row r="65" spans="6:25" s="41" customFormat="1" ht="11.25">
       <c r="F65" s="15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="46"/>
@@ -31173,7 +31298,7 @@
     </row>
     <row r="71" spans="6:25" s="41" customFormat="1" ht="11.25">
       <c r="F71" s="15" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="46"/>
@@ -31265,7 +31390,7 @@
     </row>
     <row r="75" spans="6:25" s="41" customFormat="1" ht="11.25">
       <c r="F75" s="15" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="46"/>
@@ -31384,7 +31509,7 @@
     <row r="80" spans="6:25" ht="11.25"/>
     <row r="81" spans="5:24" ht="11.25">
       <c r="E81" s="15" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="82" spans="5:24" ht="11.25"/>
@@ -31396,13 +31521,13 @@
     <row r="84" spans="5:24" ht="11.25"/>
     <row r="85" spans="5:24" ht="11.25">
       <c r="F85" s="15" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="86" spans="5:24" ht="11.25"/>
     <row r="87" spans="5:24" ht="11.25">
       <c r="G87" s="38" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="88" spans="5:24" ht="11.25">
@@ -31413,7 +31538,7 @@
     <row r="89" spans="5:24" ht="11.25"/>
     <row r="90" spans="5:24" ht="11.25">
       <c r="F90" s="15" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="91" spans="5:24" ht="11.25"/>
@@ -31425,7 +31550,7 @@
     <row r="93" spans="5:24" ht="11.25"/>
     <row r="94" spans="5:24" ht="11.25">
       <c r="F94" s="15" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
@@ -31510,7 +31635,7 @@
     </row>
     <row r="98" spans="6:24" ht="11.25">
       <c r="F98" s="15" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
@@ -31598,13 +31723,13 @@
     <row r="102" spans="6:24" ht="11.25"/>
     <row r="103" spans="6:24" ht="11.25">
       <c r="F103" s="15" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="104" spans="6:24" ht="11.25"/>
     <row r="105" spans="6:24" ht="11.25">
       <c r="G105" s="15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -31664,7 +31789,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -31683,7 +31808,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -31700,7 +31825,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -31719,7 +31844,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -31750,7 +31875,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -31769,7 +31894,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -31818,17 +31943,17 @@
     <row r="4" spans="1:35" ht="11.25"/>
     <row r="5" spans="1:35" ht="11.25">
       <c r="B5" s="15" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25">
       <c r="C6" s="15" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="11.25">
       <c r="D7" s="98" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25">
@@ -31842,18 +31967,18 @@
     <row r="10" spans="1:35" ht="11.25"/>
     <row r="11" spans="1:35" ht="11.25">
       <c r="D11" s="98" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E11" s="92"/>
     </row>
     <row r="12" spans="1:35" ht="11.25">
       <c r="E12" s="15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25">
       <c r="F13" s="15" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25"/>
@@ -31927,7 +32052,7 @@
     </row>
     <row r="22" spans="6:20" ht="11.25">
       <c r="F22" s="15" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -31981,12 +32106,12 @@
     <row r="25" spans="6:20" ht="11.25"/>
     <row r="26" spans="6:20" ht="11.25">
       <c r="F26" s="15" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="27" spans="6:20" ht="11.25">
       <c r="G27" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="28" spans="6:20" ht="11.25"/>
@@ -32014,7 +32139,7 @@
     </row>
     <row r="35" spans="8:26" ht="11.25">
       <c r="I35" s="15" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="36" spans="8:26" ht="11.25">
@@ -32196,7 +32321,7 @@
     <row r="54" spans="7:9" ht="11.25"/>
     <row r="55" spans="7:9" ht="11.25">
       <c r="G55" s="15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="56" spans="7:9" ht="11.25"/>
@@ -32212,13 +32337,13 @@
     </row>
     <row r="59" spans="7:9" ht="11.25">
       <c r="H59" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="60" spans="7:9" ht="11.25"/>
     <row r="61" spans="7:9" ht="11.25">
       <c r="G61" s="15" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="62" spans="7:9" ht="11.25"/>
@@ -32235,12 +32360,12 @@
     <row r="65" spans="5:9" ht="11.25"/>
     <row r="66" spans="5:9" ht="11.25">
       <c r="E66" s="15" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="67" spans="5:9" ht="11.25">
       <c r="F67" s="15" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="68" spans="5:9" ht="11.25"/>
@@ -32252,7 +32377,7 @@
     <row r="70" spans="5:9" ht="11.25"/>
     <row r="71" spans="5:9" ht="11.25">
       <c r="G71" s="15" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="72" spans="5:9" ht="11.25"/>
@@ -32295,7 +32420,7 @@
     <row r="81" spans="7:9" ht="11.25"/>
     <row r="82" spans="7:9" ht="11.25">
       <c r="G82" s="15" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="83" spans="7:9" ht="11.25"/>
@@ -32307,7 +32432,7 @@
     <row r="85" spans="7:9" ht="11.25"/>
     <row r="86" spans="7:9" ht="11.25">
       <c r="G86" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="87" spans="7:9" ht="11.25"/>
@@ -32319,7 +32444,7 @@
     <row r="89" spans="7:9" ht="11.25"/>
     <row r="90" spans="7:9" ht="11.25">
       <c r="G90" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="91" spans="7:9" ht="11.25"/>
@@ -32653,7 +32778,7 @@
     <row r="114" spans="7:26" ht="11.25"/>
     <row r="115" spans="7:26" ht="11.25">
       <c r="G115" s="15" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="116" spans="7:26" ht="11.25"/>
@@ -32665,7 +32790,7 @@
     <row r="118" spans="7:26" ht="11.25"/>
     <row r="119" spans="7:26" ht="11.25">
       <c r="G119" s="15" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="120" spans="7:26" ht="11.25"/>
@@ -32693,7 +32818,7 @@
     <row r="126" spans="7:26" ht="11.25"/>
     <row r="127" spans="7:26" ht="11.25">
       <c r="G127" s="15" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="128" spans="7:26" ht="11.25"/>
@@ -32710,19 +32835,19 @@
     <row r="131" spans="6:8" ht="11.25"/>
     <row r="132" spans="6:8" ht="11.25">
       <c r="G132" s="15" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="133" spans="6:8" ht="11.25"/>
     <row r="134" spans="6:8" ht="11.25">
       <c r="H134" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="135" spans="6:8" ht="11.25"/>
     <row r="136" spans="6:8" ht="11.25">
       <c r="F136" s="15" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="137" spans="6:8" ht="11.25"/>
@@ -32847,12 +32972,12 @@
     <row r="154" spans="3:8" ht="11.25"/>
     <row r="155" spans="3:8" ht="11.25">
       <c r="C155" s="24" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="156" spans="3:8" ht="11.25">
       <c r="D156" s="98" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="157" spans="3:8" ht="11.25">
@@ -32860,20 +32985,20 @@
     </row>
     <row r="158" spans="3:8" ht="11.25">
       <c r="E158" s="31" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="159" spans="3:8" ht="11.25"/>
     <row r="160" spans="3:8" ht="11.25">
       <c r="D160" s="98" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E160" s="92"/>
     </row>
     <row r="161" spans="4:30" ht="11.25">
       <c r="D161" s="98"/>
       <c r="E161" s="92" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="162" spans="4:30" ht="11.25">
@@ -32888,7 +33013,7 @@
     <row r="164" spans="4:30" ht="11.25"/>
     <row r="165" spans="4:30" ht="11.25">
       <c r="F165" s="15" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="166" spans="4:30" ht="11.25"/>
@@ -32910,7 +33035,7 @@
     <row r="170" spans="4:30" ht="11.25"/>
     <row r="171" spans="4:30" ht="11.25">
       <c r="G171" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="172" spans="4:30" ht="11.25">
@@ -33112,7 +33237,7 @@
     <row r="180" spans="7:35" ht="11.25"/>
     <row r="181" spans="7:35" ht="11.25">
       <c r="G181" s="15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="182" spans="7:35" ht="11.25">
@@ -33339,7 +33464,7 @@
     <row r="190" spans="7:35" ht="11.25"/>
     <row r="191" spans="7:35" ht="11.25">
       <c r="G191" s="15" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="192" spans="7:35" ht="11.25"/>
@@ -33351,7 +33476,7 @@
     <row r="194" spans="7:9" ht="11.25"/>
     <row r="195" spans="7:9" ht="11.25">
       <c r="G195" s="15" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="196" spans="7:9" ht="11.25"/>
@@ -33373,7 +33498,7 @@
     <row r="200" spans="7:9" ht="11.25"/>
     <row r="201" spans="7:9" ht="11.25">
       <c r="G201" s="15" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="202" spans="7:9" ht="11.25"/>
@@ -33579,7 +33704,7 @@
     <row r="215" spans="5:30" ht="11.25"/>
     <row r="216" spans="5:30" ht="11.25">
       <c r="G216" s="15" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="217" spans="5:30" ht="11.25"/>
@@ -33591,7 +33716,7 @@
     <row r="219" spans="5:30" ht="11.25"/>
     <row r="220" spans="5:30" ht="11.25">
       <c r="G220" s="15" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="221" spans="5:30" ht="11.25"/>
@@ -33603,7 +33728,7 @@
     <row r="223" spans="5:30" ht="11.25"/>
     <row r="224" spans="5:30" ht="11.25">
       <c r="E224" s="15" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="225" spans="6:7" ht="11.25"/>
@@ -33615,7 +33740,7 @@
     <row r="227" spans="6:7" ht="11.25"/>
     <row r="228" spans="6:7" ht="11.25">
       <c r="F228" s="15" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="229" spans="6:7" ht="11.25"/>
@@ -33627,7 +33752,7 @@
     <row r="231" spans="6:7" ht="11.25"/>
     <row r="232" spans="6:7" ht="11.25">
       <c r="F232" s="15" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="233" spans="6:7" ht="11.25"/>
@@ -33757,7 +33882,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -33776,7 +33901,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -33793,7 +33918,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -33812,7 +33937,7 @@
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="626" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -33843,7 +33968,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -33862,7 +33987,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -33990,7 +34115,7 @@
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="38" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -34030,7 +34155,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="149" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -34182,7 +34307,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="149" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E11" s="92"/>
       <c r="F11" s="15"/>
@@ -34222,7 +34347,7 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="38" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -34262,7 +34387,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="38" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -34343,7 +34468,7 @@
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="38" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -34457,7 +34582,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="38" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -34497,7 +34622,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="38" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -34688,7 +34813,7 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="205" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H26" s="135" t="s">
         <v>269</v>
@@ -35262,7 +35387,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="205" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H39" s="135" t="s">
         <v>269</v>
@@ -35278,7 +35403,7 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="205" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R39" s="135" t="s">
         <v>269</v>
@@ -35294,7 +35419,7 @@
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
       <c r="AA39" s="205" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AB39" s="135" t="s">
         <v>269</v>
@@ -35551,7 +35676,7 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="38" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -36312,7 +36437,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="38" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -36502,7 +36627,7 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="38" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -36731,7 +36856,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="38" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -36920,7 +37045,7 @@
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="38" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -36960,7 +37085,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -37111,7 +37236,7 @@
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="38" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -37187,7 +37312,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="15" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
@@ -37301,7 +37426,7 @@
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -37452,7 +37577,7 @@
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="38" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
@@ -37603,7 +37728,7 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="38" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
@@ -37793,7 +37918,7 @@
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="38" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
@@ -37943,7 +38068,7 @@
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="38" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
@@ -37983,7 +38108,7 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="F107" s="38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G107" s="15"/>
       <c r="H107" s="15"/>
@@ -38134,7 +38259,7 @@
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="38" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="15"/>
@@ -38285,7 +38410,7 @@
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="38" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
@@ -38436,7 +38561,7 @@
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
       <c r="F119" s="38" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
@@ -38742,7 +38867,7 @@
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="38" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
@@ -38782,7 +38907,7 @@
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="38" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
@@ -38971,7 +39096,7 @@
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="38" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
@@ -39200,7 +39325,7 @@
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="38" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
@@ -39583,7 +39708,7 @@
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="38" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="15"/>
@@ -39732,7 +39857,7 @@
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="145" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
@@ -39772,7 +39897,7 @@
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
       <c r="D154" s="149" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
@@ -39849,7 +39974,7 @@
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="31" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F156" s="15"/>
       <c r="G156" s="15"/>
@@ -39924,7 +40049,7 @@
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
       <c r="D158" s="149" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E158" s="92"/>
       <c r="F158" s="15"/>
@@ -39964,7 +40089,7 @@
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="38" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F159" s="15"/>
       <c r="G159" s="15"/>
@@ -40004,7 +40129,7 @@
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
       <c r="F160" s="38" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G160" s="15"/>
       <c r="H160" s="15"/>
@@ -40155,7 +40280,7 @@
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="38" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G164" s="15"/>
       <c r="H164" s="15"/>
@@ -40400,7 +40525,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -40419,7 +40544,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -40436,7 +40561,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -40455,7 +40580,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -40486,7 +40611,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -40505,7 +40630,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -40554,17 +40679,17 @@
     <row r="4" spans="1:35" ht="11.25"/>
     <row r="5" spans="1:35" ht="11.25">
       <c r="B5" s="24" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25">
       <c r="C6" s="15" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="11.25">
       <c r="D7" s="98" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25">
@@ -40578,13 +40703,13 @@
     <row r="10" spans="1:35" ht="11.25"/>
     <row r="11" spans="1:35" ht="11.25">
       <c r="D11" s="98" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E11" s="92"/>
     </row>
     <row r="12" spans="1:35" ht="11.25">
       <c r="E12" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25"/>
@@ -40596,13 +40721,13 @@
     <row r="15" spans="1:35" ht="11.25"/>
     <row r="16" spans="1:35" ht="11.25">
       <c r="F16" s="15" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="17" spans="6:24" ht="11.25"/>
     <row r="18" spans="6:24" ht="11.25">
       <c r="G18" s="15" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="19" spans="6:24" ht="11.25">
@@ -40613,7 +40738,7 @@
     <row r="20" spans="6:24" ht="11.25"/>
     <row r="21" spans="6:24" ht="11.25">
       <c r="F21" s="15" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="22" spans="6:24" ht="11.25"/>
@@ -40625,7 +40750,7 @@
     <row r="24" spans="6:24" ht="11.25"/>
     <row r="25" spans="6:24" ht="11.25">
       <c r="F25" s="15" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -40710,7 +40835,7 @@
     </row>
     <row r="29" spans="6:24" ht="11.25">
       <c r="F29" s="15" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -40801,24 +40926,24 @@
     </row>
     <row r="34" spans="4:7" ht="11.25">
       <c r="F34" s="15" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="35" spans="4:7" ht="11.25"/>
     <row r="36" spans="4:7" ht="11.25">
       <c r="G36" s="15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="37" spans="4:7" ht="11.25"/>
     <row r="38" spans="4:7" ht="11.25">
       <c r="E38" s="15" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="39" spans="4:7" ht="11.25">
       <c r="F39" s="15" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="40" spans="4:7" ht="11.25"/>
@@ -40835,7 +40960,7 @@
     <row r="43" spans="4:7" ht="11.25"/>
     <row r="44" spans="4:7" ht="11.25">
       <c r="E44" s="15" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="45" spans="4:7" ht="11.25"/>
@@ -40847,7 +40972,7 @@
     <row r="47" spans="4:7" ht="11.25"/>
     <row r="48" spans="4:7" ht="11.25">
       <c r="E48" s="15" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="11.25"/>
@@ -40859,12 +40984,12 @@
     <row r="51" spans="3:7" ht="11.25"/>
     <row r="52" spans="3:7" ht="11.25">
       <c r="C52" s="24" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="53" spans="3:7" ht="11.25">
       <c r="D53" s="98" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="11.25">
@@ -40872,24 +40997,24 @@
     </row>
     <row r="55" spans="3:7" ht="11.25">
       <c r="E55" s="31" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="56" spans="3:7" ht="11.25"/>
     <row r="57" spans="3:7" ht="11.25">
       <c r="D57" s="98" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E57" s="92"/>
     </row>
     <row r="58" spans="3:7" ht="11.25">
       <c r="E58" s="15" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="59" spans="3:7" ht="11.25">
       <c r="F59" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="60" spans="3:7" ht="11.25"/>
@@ -40901,7 +41026,7 @@
     <row r="62" spans="3:7" ht="11.25"/>
     <row r="63" spans="3:7" ht="11.25">
       <c r="F63" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="64" spans="3:7" ht="11.25"/>
@@ -40976,13 +41101,13 @@
   <sheetData>
     <row r="1" spans="1:40" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
       <c r="D1" s="227"/>
       <c r="E1" s="246" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F1" s="247"/>
       <c r="G1" s="247"/>
@@ -40994,13 +41119,13 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
       <c r="R1" s="230"/>
       <c r="S1" s="237" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="T1" s="238"/>
       <c r="U1" s="238"/>
@@ -41010,7 +41135,7 @@
       <c r="Y1" s="238"/>
       <c r="Z1" s="239"/>
       <c r="AA1" s="225" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -41034,13 +41159,13 @@
     </row>
     <row r="2" spans="1:40" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
       <c r="D2" s="227"/>
       <c r="E2" s="246" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F2" s="247"/>
       <c r="G2" s="247"/>
@@ -41064,7 +41189,7 @@
       <c r="Y2" s="241"/>
       <c r="Z2" s="242"/>
       <c r="AA2" s="225" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="269" t="str">
@@ -41088,7 +41213,7 @@
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -41260,7 +41385,7 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="139" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B7" s="272" t="s">
         <v>213</v>
@@ -41277,7 +41402,7 @@
       <c r="H7" s="274"/>
       <c r="I7" s="273"/>
       <c r="J7" s="272" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K7" s="274"/>
       <c r="L7" s="274"/>
@@ -41314,7 +41439,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="249" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C8" s="250"/>
       <c r="D8" s="251">
@@ -41323,12 +41448,12 @@
       <c r="E8" s="252"/>
       <c r="F8" s="253"/>
       <c r="G8" s="254" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H8" s="255"/>
       <c r="I8" s="256"/>
       <c r="J8" s="257" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K8" s="258"/>
       <c r="L8" s="258"/>
@@ -41337,7 +41462,7 @@
       <c r="O8" s="258"/>
       <c r="P8" s="259"/>
       <c r="Q8" s="260" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R8" s="261"/>
       <c r="S8" s="261"/>
@@ -41354,7 +41479,7 @@
       <c r="AD8" s="261"/>
       <c r="AE8" s="262"/>
       <c r="AF8" s="257" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AG8" s="258"/>
       <c r="AH8" s="258"/>
@@ -42502,7 +42627,7 @@
   <sheetData>
     <row r="1" spans="1:49" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -42521,7 +42646,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -42538,7 +42663,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -42571,7 +42696,7 @@
     </row>
     <row r="2" spans="1:49" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -42602,7 +42727,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -42635,7 +42760,7 @@
     </row>
     <row r="3" spans="1:49" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -42762,7 +42887,7 @@
       <c r="M5" s="90"/>
       <c r="P5" s="90"/>
       <c r="Q5" s="150" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="R5" s="90"/>
       <c r="S5" s="90"/>
@@ -42851,7 +42976,7 @@
     <row r="7" spans="1:49" s="26" customFormat="1" ht="11.25">
       <c r="A7" s="20"/>
       <c r="B7" s="141" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C7" s="141"/>
       <c r="D7" s="19"/>
@@ -42870,7 +42995,7 @@
       <c r="Q7" s="142"/>
       <c r="R7" s="20"/>
       <c r="S7" s="144" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="U7" s="146"/>
       <c r="V7" s="146"/>
@@ -42905,7 +43030,7 @@
     <row r="8" spans="1:49" s="26" customFormat="1" ht="11.25">
       <c r="A8" s="20"/>
       <c r="C8" s="145" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -42923,7 +43048,7 @@
       <c r="Q8" s="142"/>
       <c r="R8" s="20"/>
       <c r="T8" s="145" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="U8" s="146"/>
       <c r="V8" s="79"/>
@@ -42976,7 +43101,7 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="145" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="92"/>
@@ -43011,7 +43136,7 @@
     <row r="10" spans="1:49" s="26" customFormat="1" ht="11.25">
       <c r="A10" s="20"/>
       <c r="B10" s="141" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="1"/>
@@ -43031,7 +43156,7 @@
       <c r="R10" s="20"/>
       <c r="S10" s="92"/>
       <c r="T10" s="145" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="U10" s="92"/>
       <c r="V10" s="146"/>
@@ -43066,7 +43191,7 @@
     <row r="11" spans="1:49" s="26" customFormat="1" ht="11.25">
       <c r="A11" s="20"/>
       <c r="C11" s="145" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -43085,7 +43210,7 @@
       <c r="R11" s="20"/>
       <c r="S11" s="92"/>
       <c r="T11" s="146" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="U11" s="146"/>
       <c r="V11" s="92"/>
@@ -43120,7 +43245,7 @@
     <row r="12" spans="1:49" s="26" customFormat="1" ht="11.25">
       <c r="A12" s="20"/>
       <c r="C12" s="145" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -43171,7 +43296,7 @@
     <row r="13" spans="1:49" s="26" customFormat="1" ht="11.25">
       <c r="A13" s="20"/>
       <c r="C13" s="145" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -43274,7 +43399,7 @@
     <row r="15" spans="1:49" s="26" customFormat="1" ht="11.25">
       <c r="A15" s="20"/>
       <c r="B15" s="37" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -43325,7 +43450,7 @@
     <row r="16" spans="1:49" s="26" customFormat="1" ht="11.25">
       <c r="A16" s="92"/>
       <c r="C16" s="145" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D16" s="92"/>
       <c r="E16" s="92"/>
@@ -43376,7 +43501,7 @@
     <row r="17" spans="1:49" s="26" customFormat="1" ht="11.25">
       <c r="A17" s="20"/>
       <c r="C17" s="145" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -43428,7 +43553,7 @@
       <c r="A18" s="20"/>
       <c r="B18" s="1"/>
       <c r="C18" s="145" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D18" s="144"/>
       <c r="E18" s="1"/>
@@ -45929,7 +46054,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -45948,7 +46073,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -45965,7 +46090,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -45984,7 +46109,7 @@
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -46015,7 +46140,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -46034,7 +46159,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -46119,7 +46244,7 @@
     </row>
     <row r="5" spans="1:35" ht="11.25">
       <c r="B5" s="141" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -46158,7 +46283,7 @@
     <row r="6" spans="1:35" ht="11.25">
       <c r="A6" s="15"/>
       <c r="C6" s="38" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -46617,7 +46742,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -46636,7 +46761,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -46653,7 +46778,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -46672,7 +46797,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -46703,7 +46828,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -46722,7 +46847,7 @@
     </row>
     <row r="3" spans="1:35" ht="11.25">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -46772,7 +46897,7 @@
     <row r="5" spans="1:35" ht="11.25">
       <c r="A5" s="20"/>
       <c r="B5" s="38" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25">
@@ -46794,7 +46919,7 @@
     </row>
     <row r="9" spans="1:35" ht="11.25">
       <c r="D9" s="38" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25"/>
@@ -46853,7 +46978,7 @@
       <c r="H14" s="316"/>
       <c r="I14" s="317"/>
       <c r="J14" s="297" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K14" s="298"/>
       <c r="L14" s="298"/>
@@ -46956,7 +47081,7 @@
       <c r="H17" s="316"/>
       <c r="I17" s="317"/>
       <c r="J17" s="306" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K17" s="307"/>
       <c r="L17" s="307"/>
@@ -47059,7 +47184,7 @@
       <c r="H20" s="316"/>
       <c r="I20" s="317"/>
       <c r="J20" s="306" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K20" s="307"/>
       <c r="L20" s="307"/>
@@ -47174,7 +47299,7 @@
     <row r="27" spans="3:34" ht="11.25"/>
     <row r="28" spans="3:34" ht="40.5" customHeight="1">
       <c r="C28" s="294" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D28" s="295"/>
       <c r="E28" s="295"/>
@@ -47474,7 +47599,7 @@
     <row r="38" spans="3:34" ht="11.25"/>
     <row r="39" spans="3:34" ht="11.25">
       <c r="C39" s="145" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D39" s="19"/>
     </row>
@@ -47484,7 +47609,7 @@
     </row>
     <row r="41" spans="3:34" ht="11.25">
       <c r="D41" s="38" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="42" spans="3:34" ht="11.25">
@@ -47493,7 +47618,7 @@
     <row r="43" spans="3:34" ht="11.25"/>
     <row r="44" spans="3:34" ht="11.25">
       <c r="C44" s="145" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D44" s="19"/>
     </row>
@@ -47610,11 +47735,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AE28:AH28"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J13:AH13"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="W28:Z28"/>
@@ -47632,6 +47752,11 @@
     <mergeCell ref="AE30:AH30"/>
     <mergeCell ref="W30:Z30"/>
     <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AE28:AH28"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J13:AH13"/>
     <mergeCell ref="O31:R31"/>
     <mergeCell ref="S29:V29"/>
     <mergeCell ref="S30:V30"/>
@@ -47675,7 +47800,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -47694,7 +47819,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -47711,7 +47836,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -47730,7 +47855,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -47761,7 +47886,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -47780,7 +47905,7 @@
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -47829,7 +47954,7 @@
     <row r="4" spans="1:35" s="15" customFormat="1"/>
     <row r="5" spans="1:35" s="15" customFormat="1">
       <c r="B5" s="15" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C5" s="19"/>
     </row>
@@ -48075,12 +48200,12 @@
     </row>
     <row r="28" spans="3:22">
       <c r="D28" s="100" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="29" spans="3:22">
       <c r="E29" s="58" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="30" spans="3:22">
@@ -48130,12 +48255,12 @@
     </row>
     <row r="33" spans="4:34">
       <c r="E33" s="100" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="35" spans="4:34">
       <c r="D35" s="154" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E35" s="377" t="s">
         <v>215</v>
@@ -48360,7 +48485,7 @@
       <c r="J40" s="390"/>
       <c r="K40" s="390"/>
       <c r="L40" s="376" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M40" s="376"/>
       <c r="N40" s="376"/>
@@ -48627,7 +48752,7 @@
     </row>
     <row r="47" spans="4:34">
       <c r="D47" s="174" t="s">
-        <v>901</v>
+        <v>1213</v>
       </c>
       <c r="E47" s="175"/>
       <c r="F47" s="176"/>
@@ -48669,7 +48794,7 @@
     </row>
     <row r="49" spans="1:39">
       <c r="E49" s="58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="50" spans="1:39">
@@ -48683,7 +48808,7 @@
       <c r="B51" s="58"/>
       <c r="C51" s="58"/>
       <c r="D51" s="177" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E51" s="339" t="s">
         <v>215</v>
@@ -48742,7 +48867,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="357" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F52" s="358"/>
       <c r="G52" s="358"/>
@@ -48760,18 +48885,18 @@
       <c r="O52" s="366"/>
       <c r="P52" s="366"/>
       <c r="Q52" s="357" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R52" s="358"/>
       <c r="S52" s="358"/>
       <c r="T52" s="359"/>
       <c r="U52" s="348" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V52" s="349"/>
       <c r="W52" s="350"/>
       <c r="X52" s="342" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Y52" s="343"/>
       <c r="Z52" s="343"/>
@@ -48819,7 +48944,7 @@
       <c r="V53" s="352"/>
       <c r="W53" s="353"/>
       <c r="X53" s="342" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Y53" s="343"/>
       <c r="Z53" s="343"/>
@@ -48865,7 +48990,7 @@
       <c r="V54" s="352"/>
       <c r="W54" s="353"/>
       <c r="X54" s="342" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Y54" s="343"/>
       <c r="Z54" s="343"/>
@@ -48988,7 +49113,7 @@
       <c r="G57" s="346"/>
       <c r="H57" s="347"/>
       <c r="I57" s="345" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="J57" s="346"/>
       <c r="K57" s="346"/>
@@ -48998,18 +49123,18 @@
       <c r="O57" s="346"/>
       <c r="P57" s="347"/>
       <c r="Q57" s="345" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="R57" s="346"/>
       <c r="S57" s="346"/>
       <c r="T57" s="347"/>
       <c r="U57" s="345" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="V57" s="346"/>
       <c r="W57" s="347"/>
       <c r="X57" s="336" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="Y57" s="337"/>
       <c r="Z57" s="337"/>
@@ -49144,7 +49269,7 @@
       <c r="B62" s="58"/>
       <c r="C62" s="58"/>
       <c r="D62" s="177" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E62" s="401" t="s">
         <v>215</v>
@@ -49202,7 +49327,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="357" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F63" s="358"/>
       <c r="G63" s="358"/>
@@ -49220,13 +49345,13 @@
       <c r="O63" s="367"/>
       <c r="P63" s="367"/>
       <c r="Q63" s="357" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="R63" s="358"/>
       <c r="S63" s="358"/>
       <c r="T63" s="359"/>
       <c r="U63" s="405" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="V63" s="405"/>
       <c r="W63" s="405"/>
@@ -49309,7 +49434,7 @@
       <c r="J65" s="405"/>
       <c r="K65" s="405"/>
       <c r="L65" s="367" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="M65" s="367"/>
       <c r="N65" s="367"/>
@@ -49399,7 +49524,7 @@
       <c r="J67" s="405"/>
       <c r="K67" s="405"/>
       <c r="L67" s="367" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M67" s="367"/>
       <c r="N67" s="367"/>
@@ -49453,13 +49578,13 @@
       <c r="O68" s="406"/>
       <c r="P68" s="406"/>
       <c r="Q68" s="414" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="R68" s="415"/>
       <c r="S68" s="415"/>
       <c r="T68" s="416"/>
       <c r="U68" s="410" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V68" s="410"/>
       <c r="W68" s="410"/>
@@ -49506,7 +49631,7 @@
       <c r="S69" s="418"/>
       <c r="T69" s="419"/>
       <c r="U69" s="410" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="V69" s="410"/>
       <c r="W69" s="410"/>
@@ -49598,7 +49723,7 @@
       <c r="S71" s="418"/>
       <c r="T71" s="419"/>
       <c r="U71" s="410" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="V71" s="410"/>
       <c r="W71" s="410"/>
@@ -49645,7 +49770,7 @@
       <c r="S72" s="418"/>
       <c r="T72" s="419"/>
       <c r="U72" s="410" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V72" s="410"/>
       <c r="W72" s="410"/>
@@ -49735,13 +49860,13 @@
       <c r="O74" s="406"/>
       <c r="P74" s="406"/>
       <c r="Q74" s="414" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="R74" s="415"/>
       <c r="S74" s="415"/>
       <c r="T74" s="416"/>
       <c r="U74" s="410" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="V74" s="410"/>
       <c r="W74" s="410"/>
@@ -50186,7 +50311,7 @@
   <sheetData>
     <row r="1" spans="1:41" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -50205,7 +50330,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -50222,7 +50347,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -50241,7 +50366,7 @@
     </row>
     <row r="2" spans="1:41" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -50272,7 +50397,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -50291,7 +50416,7 @@
     </row>
     <row r="3" spans="1:41" s="15" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -50340,7 +50465,7 @@
     <row r="4" spans="1:41" s="15" customFormat="1" ht="12" customHeight="1"/>
     <row r="5" spans="1:41" ht="12" customHeight="1">
       <c r="D5" s="100" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="12" customHeight="1">
@@ -50351,7 +50476,7 @@
     </row>
     <row r="7" spans="1:41" s="58" customFormat="1" ht="11.25">
       <c r="D7" s="181" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E7" s="465" t="s">
         <v>215</v>
@@ -50559,13 +50684,13 @@
       <c r="P11" s="410"/>
       <c r="Q11" s="410"/>
       <c r="R11" s="414" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="S11" s="415"/>
       <c r="T11" s="415"/>
       <c r="U11" s="416"/>
       <c r="V11" s="481" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="W11" s="482"/>
       <c r="X11" s="483"/>
@@ -50606,7 +50731,7 @@
       <c r="M12" s="418"/>
       <c r="N12" s="419"/>
       <c r="O12" s="410" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="P12" s="410"/>
       <c r="Q12" s="410"/>
@@ -50615,7 +50740,7 @@
       <c r="T12" s="418"/>
       <c r="U12" s="419"/>
       <c r="V12" s="414" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="W12" s="415"/>
       <c r="X12" s="416"/>
@@ -50654,7 +50779,7 @@
       <c r="M13" s="418"/>
       <c r="N13" s="419"/>
       <c r="O13" s="410" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="P13" s="410"/>
       <c r="Q13" s="410"/>
@@ -50700,7 +50825,7 @@
       <c r="M14" s="418"/>
       <c r="N14" s="419"/>
       <c r="O14" s="410" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="P14" s="410"/>
       <c r="Q14" s="410"/>
@@ -50709,7 +50834,7 @@
       <c r="T14" s="418"/>
       <c r="U14" s="419"/>
       <c r="V14" s="481" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="W14" s="482"/>
       <c r="X14" s="483"/>
@@ -50757,7 +50882,7 @@
       <c r="T15" s="418"/>
       <c r="U15" s="419"/>
       <c r="V15" s="414" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="W15" s="415"/>
       <c r="X15" s="416"/>
@@ -50842,12 +50967,12 @@
       <c r="M17" s="418"/>
       <c r="N17" s="419"/>
       <c r="O17" s="410" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="P17" s="410"/>
       <c r="Q17" s="410"/>
       <c r="R17" s="414" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="S17" s="415"/>
       <c r="T17" s="415"/>
@@ -50892,7 +51017,7 @@
       <c r="M18" s="418"/>
       <c r="N18" s="419"/>
       <c r="O18" s="410" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="P18" s="410"/>
       <c r="Q18" s="410"/>
@@ -50904,7 +51029,7 @@
       <c r="W18" s="418"/>
       <c r="X18" s="419"/>
       <c r="Y18" s="330" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Z18" s="331"/>
       <c r="AA18" s="331"/>
@@ -50938,7 +51063,7 @@
       <c r="M19" s="421"/>
       <c r="N19" s="422"/>
       <c r="O19" s="410" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="P19" s="410"/>
       <c r="Q19" s="410"/>
@@ -50950,7 +51075,7 @@
       <c r="W19" s="421"/>
       <c r="X19" s="422"/>
       <c r="Y19" s="330" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Z19" s="331"/>
       <c r="AA19" s="331"/>
@@ -50982,7 +51107,7 @@
       <c r="J20" s="361"/>
       <c r="K20" s="362"/>
       <c r="L20" s="414" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M20" s="415"/>
       <c r="N20" s="416"/>
@@ -50992,13 +51117,13 @@
       <c r="P20" s="410"/>
       <c r="Q20" s="410"/>
       <c r="R20" s="414" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="S20" s="415"/>
       <c r="T20" s="415"/>
       <c r="U20" s="416"/>
       <c r="V20" s="414" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="W20" s="415"/>
       <c r="X20" s="416"/>
@@ -51094,7 +51219,7 @@
       <c r="T22" s="418"/>
       <c r="U22" s="419"/>
       <c r="V22" s="414" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="W22" s="415"/>
       <c r="X22" s="416"/>
@@ -51345,7 +51470,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -51364,7 +51489,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -51381,7 +51506,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -51400,7 +51525,7 @@
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -51431,7 +51556,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -51450,7 +51575,7 @@
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -51499,12 +51624,12 @@
     <row r="4" spans="1:35" s="15" customFormat="1" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="C5" s="100" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
       <c r="D6" s="100" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="U6" s="88"/>
     </row>
@@ -51531,7 +51656,7 @@
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
       <c r="D12" s="191" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E12" s="465" t="s">
         <v>215</v>
@@ -52030,7 +52155,7 @@
       <c r="W23" s="445"/>
       <c r="X23" s="446"/>
       <c r="Y23" s="444" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Z23" s="445"/>
       <c r="AA23" s="445"/>
@@ -52452,7 +52577,7 @@
       <c r="P34" s="502"/>
       <c r="Q34" s="502"/>
       <c r="R34" s="484" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="S34" s="485"/>
       <c r="T34" s="485"/>
@@ -52644,7 +52769,7 @@
       <c r="M39" s="473"/>
       <c r="N39" s="474"/>
       <c r="O39" s="502" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="P39" s="502"/>
       <c r="Q39" s="502"/>
@@ -53537,7 +53662,7 @@
     </row>
     <row r="65" spans="4:34" ht="11.25">
       <c r="D65" s="58" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E65" s="58"/>
       <c r="F65" s="58"/>
@@ -53955,7 +54080,7 @@
       <c r="J76" s="473"/>
       <c r="K76" s="474"/>
       <c r="L76" s="444" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="M76" s="445"/>
       <c r="N76" s="446"/>
@@ -53999,7 +54124,7 @@
       <c r="M77" s="445"/>
       <c r="N77" s="446"/>
       <c r="O77" s="502" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P77" s="502"/>
       <c r="Q77" s="502"/>
@@ -54166,13 +54291,13 @@
       <c r="P81" s="468"/>
       <c r="Q81" s="468"/>
       <c r="R81" s="447" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="S81" s="448"/>
       <c r="T81" s="448"/>
       <c r="U81" s="449"/>
       <c r="V81" s="447" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="W81" s="448"/>
       <c r="X81" s="449"/>
@@ -54306,7 +54431,7 @@
     </row>
     <row r="87" spans="4:34" ht="11.25">
       <c r="D87" s="39" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E87" s="58"/>
       <c r="F87" s="58"/>
@@ -54329,7 +54454,7 @@
     </row>
     <row r="88" spans="4:34" ht="11.25">
       <c r="D88" s="39" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E88" s="58"/>
       <c r="F88" s="58"/>
@@ -54352,7 +54477,7 @@
     </row>
     <row r="89" spans="4:34" ht="11.25">
       <c r="D89" s="58" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E89" s="58"/>
       <c r="F89" s="58"/>
@@ -54375,7 +54500,7 @@
     </row>
     <row r="90" spans="4:34" ht="11.25">
       <c r="D90" s="58" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E90" s="58"/>
       <c r="F90" s="58"/>
@@ -54657,7 +54782,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="225" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B1" s="226"/>
       <c r="C1" s="226"/>
@@ -54676,7 +54801,7 @@
       <c r="M1" s="247"/>
       <c r="N1" s="248"/>
       <c r="O1" s="228" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P1" s="229"/>
       <c r="Q1" s="229"/>
@@ -54693,7 +54818,7 @@
       <c r="Y1" s="276"/>
       <c r="Z1" s="277"/>
       <c r="AA1" s="225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AB1" s="227"/>
       <c r="AC1" s="263" t="str">
@@ -54712,7 +54837,7 @@
     </row>
     <row r="2" spans="1:36" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="225" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B2" s="226"/>
       <c r="C2" s="226"/>
@@ -54743,7 +54868,7 @@
       <c r="Y2" s="279"/>
       <c r="Z2" s="280"/>
       <c r="AA2" s="225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB2" s="227"/>
       <c r="AC2" s="263" t="str">
@@ -54762,7 +54887,7 @@
     </row>
     <row r="3" spans="1:36" s="15" customFormat="1">
       <c r="A3" s="225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B3" s="226"/>
       <c r="C3" s="226"/>
@@ -54811,12 +54936,12 @@
     <row r="4" spans="1:36" s="15" customFormat="1"/>
     <row r="5" spans="1:36" s="15" customFormat="1">
       <c r="C5" s="15" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1">
       <c r="D6" s="100" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="U6" s="88"/>
     </row>
@@ -54837,7 +54962,7 @@
     <row r="10" spans="1:36" ht="12" customHeight="1">
       <c r="C10" s="15"/>
       <c r="D10" s="193" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E10" s="373" t="s">
         <v>215</v>
@@ -55118,13 +55243,13 @@
       <c r="N16" s="406"/>
       <c r="O16" s="406"/>
       <c r="P16" s="414" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="Q16" s="415"/>
       <c r="R16" s="415"/>
       <c r="S16" s="416"/>
       <c r="T16" s="414" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="U16" s="415"/>
       <c r="V16" s="416"/>
@@ -55204,13 +55329,13 @@
       <c r="N18" s="406"/>
       <c r="O18" s="406"/>
       <c r="P18" s="407" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q18" s="408"/>
       <c r="R18" s="408"/>
       <c r="S18" s="409"/>
       <c r="T18" s="406" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="U18" s="406"/>
       <c r="V18" s="406"/>
@@ -55248,13 +55373,13 @@
       <c r="N19" s="406"/>
       <c r="O19" s="406"/>
       <c r="P19" s="414" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q19" s="415"/>
       <c r="R19" s="415"/>
       <c r="S19" s="416"/>
       <c r="T19" s="410" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="U19" s="410"/>
       <c r="V19" s="410"/>
@@ -55332,13 +55457,13 @@
       <c r="N21" s="406"/>
       <c r="O21" s="406"/>
       <c r="P21" s="414" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q21" s="415"/>
       <c r="R21" s="415"/>
       <c r="S21" s="416"/>
       <c r="T21" s="410" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="U21" s="410"/>
       <c r="V21" s="410"/>
@@ -55627,7 +55752,7 @@
       <c r="N28" s="406"/>
       <c r="O28" s="406"/>
       <c r="P28" s="414" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Q28" s="415"/>
       <c r="R28" s="415"/>
@@ -55661,7 +55786,7 @@
       <c r="G29" s="361"/>
       <c r="H29" s="362"/>
       <c r="I29" s="330" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J29" s="331"/>
       <c r="K29" s="332"/>
@@ -55801,7 +55926,7 @@
     </row>
     <row r="33" spans="4:34" ht="12" customHeight="1">
       <c r="D33" s="100" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="34" spans="4:34" ht="12" customHeight="1">
@@ -55812,7 +55937,7 @@
     </row>
     <row r="35" spans="4:34" ht="12" customHeight="1">
       <c r="D35" s="200" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E35" s="465" t="s">
         <v>215</v>
